--- a/server-res/excel/Cfg_DataCountLimit.xlsx
+++ b/server-res/excel/Cfg_DataCountLimit.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,15 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>uint32</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +30,6 @@
   </si>
   <si>
     <t>reset_time</t>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">编号:type=1时代表物品id, type=2时代表任务id </t>
@@ -61,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,6 +105,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -160,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,7 +190,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -420,44 +415,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7191001</v>
+      </c>
+      <c r="C3">
+        <v>1001</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -465,13 +460,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>7191002</v>
       </c>
       <c r="C4">
         <v>1001</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -479,24 +474,24 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>7191003</v>
       </c>
       <c r="C5">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>51001</v>
       </c>
       <c r="C6">
-        <v>1002</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -507,26 +502,12 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>51001</v>
+        <v>51002</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>51002</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
         <v>1</v>
       </c>
     </row>

--- a/server-res/excel/Cfg_DataCountLimit.xlsx
+++ b/server-res/excel/Cfg_DataCountLimit.xlsx
@@ -15,8 +15,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+    DATA_COUNT_RESET_NEVER    = 0,       //不重置
+    DATA_COUNT_RESET_BY_DAY   = 1,       //跨N天重置
+    DATA_COUNT_RESET_BY_WEEK  = 2,       //跨N周重置
+    DATA_COUNT_RESET_BY_MONTH = 3,       //跨N月重置</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,12 +88,24 @@
     <t>重置天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>reset_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +119,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -398,11 +464,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -410,10 +476,11 @@
     <col min="1" max="1" width="32.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,10 +491,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -438,10 +511,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -452,10 +528,13 @@
         <v>1001</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -468,8 +547,11 @@
       <c r="D4">
         <v>0</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -480,10 +562,13 @@
         <v>1002</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -496,8 +581,11 @@
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2</v>
       </c>
@@ -508,6 +596,9 @@
         <v>5</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
     </row>
@@ -515,6 +606,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
